--- a/output/fit_clients/fit_round_111.xlsx
+++ b/output/fit_clients/fit_round_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1523553100.322607</v>
+        <v>2007281920.927429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07192225527132501</v>
+        <v>0.06951107521484579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0390877611910344</v>
+        <v>0.03405457876219783</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761776481.6842694</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2426642109.885736</v>
+        <v>1711611358.078311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1618995365522955</v>
+        <v>0.1692229550591697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04285473045390297</v>
+        <v>0.03969812431067652</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1213321161.011072</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4781441131.548519</v>
+        <v>5137415717.039582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1155837558684107</v>
+        <v>0.1027016386030871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03057112084909241</v>
+        <v>0.03560386594045903</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2390720635.256568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3975548218.044316</v>
+        <v>3438455826.044633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06994450668679053</v>
+        <v>0.07626798667158458</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0373452757808693</v>
+        <v>0.04066114788018517</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1987774114.318414</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2161340163.564619</v>
+        <v>2064703069.453014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1046771737947604</v>
+        <v>0.09885593028235633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04815391840789592</v>
+        <v>0.0372839401017234</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1080670093.8553</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2592805774.575945</v>
+        <v>1942971782.93263</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06319276615425511</v>
+        <v>0.06366978072781822</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04863473793270486</v>
+        <v>0.0335310714213608</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1296402891.358266</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3926338602.143304</v>
+        <v>2967576932.8612</v>
       </c>
       <c r="F8" t="n">
-        <v>0.148222909130448</v>
+        <v>0.1481356275985418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03189095755613802</v>
+        <v>0.03239525460089909</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1963169453.215566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1889168945.963638</v>
+        <v>1783191655.913282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1970808249333119</v>
+        <v>0.1519876975976752</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02378765053785557</v>
+        <v>0.0343822094819838</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>944584514.9143451</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4898849353.252303</v>
+        <v>4642835649.56028</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2068424927764552</v>
+        <v>0.1340021759536229</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04567001770685165</v>
+        <v>0.04412623245805548</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2449424768.032578</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3807197465.791829</v>
+        <v>3153312374.109987</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1365056118541928</v>
+        <v>0.1311641671017947</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03503213430944996</v>
+        <v>0.03734692007431054</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1903598732.118254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3096527977.409801</v>
+        <v>2496375366.445111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1961325982661496</v>
+        <v>0.1869217933725766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03487876005751724</v>
+        <v>0.0492127261597328</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1548264015.473549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5249134914.255375</v>
+        <v>3913147791.643964</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06169622131576417</v>
+        <v>0.06357778198404426</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0202899460871745</v>
+        <v>0.02205129035935783</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2624567448.54779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3065234249.12399</v>
+        <v>3365453859.125204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1392952281959673</v>
+        <v>0.130060969238551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04376077956142054</v>
+        <v>0.0296129249593924</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1532617154.215328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1393202450.970907</v>
+        <v>1532998813.242608</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09929444573077725</v>
+        <v>0.08849205915806276</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03062116790220961</v>
+        <v>0.03713033931266829</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>696601286.7154769</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2662321838.121814</v>
+        <v>2378009322.756993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08606334381822348</v>
+        <v>0.09129273050841626</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04022484948622826</v>
+        <v>0.03225453475381629</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1331160935.307811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3536352576.360893</v>
+        <v>5123443006.452087</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1500884061957626</v>
+        <v>0.1411030257734032</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04532059835057866</v>
+        <v>0.03784235941125383</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1768176345.62717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3650368224.396542</v>
+        <v>3230200183.986576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.122498881767704</v>
+        <v>0.135106849217542</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02851559749684089</v>
+        <v>0.02875207012173548</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1825184095.279717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>830228588.5641391</v>
+        <v>946569895.1413567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1875424624328141</v>
+        <v>0.1367508628649302</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02054220952100047</v>
+        <v>0.02006108504080705</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>415114282.1280397</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1801570427.080087</v>
+        <v>2067925684.004001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1542277679497546</v>
+        <v>0.1442160390176213</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02464454998667783</v>
+        <v>0.02743551968705196</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>900785260.9487342</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2367822968.830041</v>
+        <v>2247868962.649716</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1008402853178623</v>
+        <v>0.06755479028251482</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04260499051895116</v>
+        <v>0.0327834462211954</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1183911485.1288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2625325178.028101</v>
+        <v>3172866270.909534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11810135938073</v>
+        <v>0.09584819439119326</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04990227108623065</v>
+        <v>0.03884218549400235</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1312662672.925503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1284922893.725018</v>
+        <v>1387340694.875512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1661519293523613</v>
+        <v>0.1307639252894555</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04482018728400992</v>
+        <v>0.05479621407191685</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>642461468.9786766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4011495301.565264</v>
+        <v>4119940857.037221</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1420665527933055</v>
+        <v>0.1321542624883508</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02276754661953707</v>
+        <v>0.02360180543036702</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2005747617.910233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079849187.31388</v>
+        <v>1021049890.501299</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0747184714869417</v>
+        <v>0.10042527699846</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02542011954372667</v>
+        <v>0.0271907625277413</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>539924639.209113</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1133976307.140352</v>
+        <v>921358790.6763874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1105790062303952</v>
+        <v>0.1015643073533127</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03064698226424018</v>
+        <v>0.03555527485046964</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>566988158.3693475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3956246999.973875</v>
+        <v>3421314112.923175</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1495947583015305</v>
+        <v>0.116412461731536</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0190266154469349</v>
+        <v>0.02233568588705462</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1978123512.253587</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2468206868.411613</v>
+        <v>3023656249.348106</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1042358427753476</v>
+        <v>0.1017726715044523</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04650472210206995</v>
+        <v>0.04502395575173233</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1234103399.196579</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4164767268.150055</v>
+        <v>5509206299.486136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09912895821926382</v>
+        <v>0.1028175554451172</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03037811293376845</v>
+        <v>0.04478718994981523</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2082383639.434768</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1901766827.231494</v>
+        <v>1694369933.610546</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0941008735292614</v>
+        <v>0.1200033455557771</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02624034155748755</v>
+        <v>0.02465731405257121</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>950883439.8604938</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1362330821.3585</v>
+        <v>1014888626.594398</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1068431050873188</v>
+        <v>0.06947957043375171</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03703035008102825</v>
+        <v>0.03327702908105373</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>681165323.8668077</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1730906200.468457</v>
+        <v>1186931037.062958</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167137026710004</v>
+        <v>0.1086214778868292</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03017810431315559</v>
+        <v>0.03738759196298833</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>865453216.3636934</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2233851266.53361</v>
+        <v>2706744984.89235</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1385565333238105</v>
+        <v>0.1928759465947283</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05820721109161541</v>
+        <v>0.03841457023957408</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1116925694.083938</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1470828892.411945</v>
+        <v>1225861246.10149</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0908663607280976</v>
+        <v>0.09937793701262095</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312938215472755</v>
+        <v>0.02650976938215577</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>735414406.8276073</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1251853807.767776</v>
+        <v>1177406446.142879</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1090495449302969</v>
+        <v>0.08325607450701804</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03636123476563085</v>
+        <v>0.03645272459288231</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>625926867.1772182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3040847549.110347</v>
+        <v>2262815275.086855</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1768591238699065</v>
+        <v>0.1675065985831292</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02641043370953354</v>
+        <v>0.0277973068528527</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1520423753.124948</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1978895065.931651</v>
+        <v>2315496093.747707</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1065077273039421</v>
+        <v>0.07456705812504213</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03380283056762496</v>
+        <v>0.03176618093554073</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J37" t="n">
-        <v>989447557.3043437</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1562882594.836264</v>
+        <v>2042639930.213246</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09787944690869076</v>
+        <v>0.1132735182574343</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02437080031657491</v>
+        <v>0.02875240770351698</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>781441337.735122</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1679646030.150752</v>
+        <v>2030764283.018043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1422421165604013</v>
+        <v>0.1527418612059195</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02080408005929292</v>
+        <v>0.02573719693586544</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>839823058.1892593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1214638883.078273</v>
+        <v>1805073620.777115</v>
       </c>
       <c r="F40" t="n">
-        <v>0.109468550918716</v>
+        <v>0.1006291520044035</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0514404577245616</v>
+        <v>0.04632819637651406</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>607319479.1132388</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2424397728.935898</v>
+        <v>2371768313.286239</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1446457616555171</v>
+        <v>0.1393224474641321</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04010654763260455</v>
+        <v>0.02856091788263006</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1212198897.05992</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3400330262.252692</v>
+        <v>3839317341.255424</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09693763501460168</v>
+        <v>0.07939656125960072</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04604359401706799</v>
+        <v>0.03078543396353998</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1700165119.064499</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1930058313.418438</v>
+        <v>2685411393.245169</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1460189334137538</v>
+        <v>0.1241176277667221</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01784545768784097</v>
+        <v>0.02343133126686864</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>36</v>
-      </c>
-      <c r="J43" t="n">
-        <v>965029262.616473</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839535911.7583</v>
+        <v>1827587737.138525</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06453870431636455</v>
+        <v>0.0727586899282343</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0260740418159215</v>
+        <v>0.02579931144156095</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>919768030.139563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1883605403.001398</v>
+        <v>2485351876.084982</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1342739439615281</v>
+        <v>0.1738692796404</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03421641899123617</v>
+        <v>0.04844525413976192</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>941802680.5616018</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4724983046.903167</v>
+        <v>4964001369.870808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1526575801482357</v>
+        <v>0.1503799923214563</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05579486594869561</v>
+        <v>0.04739676678482134</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>40</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2362491534.430126</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5090179205.615871</v>
+        <v>3145739843.762133</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1767412920721075</v>
+        <v>0.1913528658538218</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04517213527611291</v>
+        <v>0.0393313736500252</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>30</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2545089663.637935</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4179331778.196993</v>
+        <v>4598624542.437666</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09614869456039077</v>
+        <v>0.07123565464605318</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03468308803041464</v>
+        <v>0.03010521221802442</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2089665913.015198</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1352148548.64503</v>
+        <v>1288457198.574217</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1652352968888181</v>
+        <v>0.1236445538364638</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03219290666367399</v>
+        <v>0.03324317090331314</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>676074329.2788721</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2730513381.717207</v>
+        <v>3710067588.358774</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1521146713127212</v>
+        <v>0.112557462356066</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03369871017434565</v>
+        <v>0.03474584005211791</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>38</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1365256769.80731</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1225464854.458519</v>
+        <v>1119944670.403205</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1512360915550193</v>
+        <v>0.1914557021846436</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0515617078822251</v>
+        <v>0.03714132951126589</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>612732474.5937591</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3478382536.731194</v>
+        <v>4322191428.659239</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1044917280550488</v>
+        <v>0.0926699493457597</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05096484952564589</v>
+        <v>0.04441849742321109</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>46</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1739191355.487464</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3259465400.794108</v>
+        <v>3584266717.462194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1710346024710131</v>
+        <v>0.1860239872694568</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03052404331912945</v>
+        <v>0.03089345517421254</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1629732714.82363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4562298366.695233</v>
+        <v>4805694602.395456</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1328490174917425</v>
+        <v>0.1267917056649447</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04306521788160684</v>
+        <v>0.04448520157058981</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2281149291.519586</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4487181022.636327</v>
+        <v>4082840803.788275</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1590112012489654</v>
+        <v>0.2212374383050126</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02436878056248187</v>
+        <v>0.02309119330495863</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2243590507.694252</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1186641763.876739</v>
+        <v>1679821939.863712</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1106866418124965</v>
+        <v>0.1218750360822443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0474515270108113</v>
+        <v>0.04371623827988613</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>593320970.536274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4406874210.792542</v>
+        <v>4124875775.027802</v>
       </c>
       <c r="F57" t="n">
-        <v>0.128924005219008</v>
+        <v>0.1727747943844987</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02219386443843951</v>
+        <v>0.02175067034195491</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>35</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2203437227.856672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1788153848.028217</v>
+        <v>1487197255.216763</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1815514145765192</v>
+        <v>0.1577691891996403</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02819391103516143</v>
+        <v>0.03656519501505005</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>894076928.8060331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3401622489.645591</v>
+        <v>4996641379.478683</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1142031410406837</v>
+        <v>0.1269067219813976</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04539684282900965</v>
+        <v>0.04673718817901899</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1700811249.566998</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2506564098.307857</v>
+        <v>2464782782.501537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1676044938340118</v>
+        <v>0.187216824428996</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03049724954988891</v>
+        <v>0.03027510301398001</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1253282067.700105</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2593374508.127195</v>
+        <v>3405098647.965497</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1387583948224165</v>
+        <v>0.1331626687839949</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02452703737589926</v>
+        <v>0.02141353062259507</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>39</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1296687272.816543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1318157786.519178</v>
+        <v>1902238845.483063</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1897730295875784</v>
+        <v>0.1848575365688132</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0495684947500182</v>
+        <v>0.04013691593468818</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>659078848.9705141</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5175559544.212456</v>
+        <v>5107732400.620942</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08271596945785838</v>
+        <v>0.09841077070790268</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04570493951568817</v>
+        <v>0.03640490129510709</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2587779781.9669</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4313941804.074644</v>
+        <v>5096505281.446941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.178670520992083</v>
+        <v>0.1831825945493364</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03481594749659818</v>
+        <v>0.02931548091957745</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>35</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2156970959.918192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4660526256.11513</v>
+        <v>4588282896.626621</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1349912717523658</v>
+        <v>0.1265528087102815</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02516476374668483</v>
+        <v>0.02208541386024584</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2330263107.159925</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4773652461.728267</v>
+        <v>3822784661.638011</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1124206792670901</v>
+        <v>0.1150674847680276</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04839278660910553</v>
+        <v>0.03570858759981835</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>32</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2386826245.864929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3401853905.353515</v>
+        <v>2548862274.723843</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0915304361011843</v>
+        <v>0.07966238850716804</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04266471221409487</v>
+        <v>0.03736056957115302</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>36</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1700926936.841884</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4569025470.821088</v>
+        <v>5638543451.634466</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1501764639497152</v>
+        <v>0.1094718446050491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04374524239282751</v>
+        <v>0.03668662568154396</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>35</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2284512765.633848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2404698427.597481</v>
+        <v>1997081807.561242</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1710698880425933</v>
+        <v>0.1139786483752952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05502082637783177</v>
+        <v>0.03938759971237742</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1202349271.019075</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3402544613.05802</v>
+        <v>3485991060.436999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08952243955662248</v>
+        <v>0.07448264779903277</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04138428287012214</v>
+        <v>0.03012893607016607</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>32</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1701272309.703952</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3798354037.811895</v>
+        <v>3860501940.01576</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1146445633977987</v>
+        <v>0.1241406415086134</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02884350898413901</v>
+        <v>0.02403382754331787</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>41</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1899177034.843032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1920764116.431949</v>
+        <v>2050078007.057759</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07100884662986097</v>
+        <v>0.08045836435146936</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0378921604097454</v>
+        <v>0.03770812641240272</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>960382017.2995073</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2963582332.035496</v>
+        <v>3381087511.120653</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1001724275067464</v>
+        <v>0.09075580387118559</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03296469671413866</v>
+        <v>0.05047546021553895</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1481791165.271973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3451820128.376338</v>
+        <v>3037957490.948843</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1345390665142836</v>
+        <v>0.1432225870484</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02234368198746199</v>
+        <v>0.02555198334902791</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>38</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1725910090.467757</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2100055095.141547</v>
+        <v>1940461419.603024</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1019078888350587</v>
+        <v>0.1073839923176635</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02991380084446314</v>
+        <v>0.03671610232762035</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1050027502.310606</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3284333565.43467</v>
+        <v>4597341995.605206</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08969686044302817</v>
+        <v>0.1123414108382313</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02692406498392422</v>
+        <v>0.0235281463104534</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1642166737.374177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1461768117.66404</v>
+        <v>2227167041.685999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1512658318017814</v>
+        <v>0.1576522753334046</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02272849013454156</v>
+        <v>0.01938744970041452</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>730884040.812536</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3715594301.926969</v>
+        <v>3721775380.366491</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1368602322519336</v>
+        <v>0.108257872148783</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05462906788827536</v>
+        <v>0.03952332254294372</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>39</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1857797137.003554</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1567002052.804361</v>
+        <v>1590340748.923569</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1561407689684065</v>
+        <v>0.1509052566299935</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03628941772581474</v>
+        <v>0.04076805678397705</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>783501072.2647542</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4853647672.352013</v>
+        <v>3647700153.86956</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07876660953019232</v>
+        <v>0.08880060878584062</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03577109731193602</v>
+        <v>0.03780204284150134</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2426823878.031219</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3281918171.056252</v>
+        <v>3483900558.883187</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08341835861317808</v>
+        <v>0.1249802280387187</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02043146032829375</v>
+        <v>0.0240179364709205</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1640959021.997253</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4314965307.869844</v>
+        <v>4374221590.96583</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1381915391867264</v>
+        <v>0.2157881557819831</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02285181359072405</v>
+        <v>0.02698339086482964</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2157482676.076849</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2169282766.261591</v>
+        <v>1563033622.531871</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1400040642292784</v>
+        <v>0.1490621403234621</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04190156378166039</v>
+        <v>0.02970625182173744</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1084641389.487014</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1879603374.993409</v>
+        <v>1786902278.21221</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07432250089182867</v>
+        <v>0.1102628464545909</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03207802591765586</v>
+        <v>0.04009871570636626</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>939801710.0698658</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2390437344.834242</v>
+        <v>3418904544.885338</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1507833100664568</v>
+        <v>0.1500002076971768</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04969830783831913</v>
+        <v>0.04759068663809795</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>41</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1195218665.217246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2071925606.104136</v>
+        <v>2489257983.518073</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1434107061655314</v>
+        <v>0.1377235220821076</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02699391761750922</v>
+        <v>0.01770305360855294</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1035962840.626748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1359050277.913266</v>
+        <v>1474188744.51684</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1407605563679037</v>
+        <v>0.1283434086218118</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03372473103708895</v>
+        <v>0.04406902878520248</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>679525235.2552423</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3370403657.085411</v>
+        <v>3069615179.853782</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1134399810415381</v>
+        <v>0.142160800243042</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03371576626331235</v>
+        <v>0.02882428218714147</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>44</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1685201895.528146</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2145169257.461362</v>
+        <v>2232845683.250449</v>
       </c>
       <c r="F89" t="n">
-        <v>0.123906869090122</v>
+        <v>0.1418877695093612</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03628143899778789</v>
+        <v>0.02820341852772034</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1072584729.442466</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1966556093.955374</v>
+        <v>1766179594.568765</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09527781476173132</v>
+        <v>0.1135331632837349</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05459060786048502</v>
+        <v>0.03638192698913315</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>983278111.0277083</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1653226318.690595</v>
+        <v>1340169660.094079</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1794237093198056</v>
+        <v>0.1796656146587609</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04552140174676361</v>
+        <v>0.05573959067430474</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>826613177.7685775</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2235319469.97748</v>
+        <v>2232329104.173084</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09582261561130269</v>
+        <v>0.1066677904810508</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04339484070242176</v>
+        <v>0.03151812769022796</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1117659698.888455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3268557920.999045</v>
+        <v>4112142326.652815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022625556883444</v>
+        <v>0.100758709754981</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05456667959779891</v>
+        <v>0.04824913484080047</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1634279008.374293</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1926620185.774455</v>
+        <v>1768115493.081422</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1530029351163596</v>
+        <v>0.1326068098248777</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03384315777834052</v>
+        <v>0.0335406054622284</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>963310081.6882344</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2569154574.676692</v>
+        <v>3182056817.068347</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1123160040853784</v>
+        <v>0.1319060420556429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04817245358585196</v>
+        <v>0.03646703822041108</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1284577318.336461</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1859253451.21482</v>
+        <v>1492279901.309659</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08629710457917429</v>
+        <v>0.1081389303033175</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04733899847700885</v>
+        <v>0.02869448975449402</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>929626727.5532656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4810568869.607581</v>
+        <v>5225134903.868331</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1653206792484347</v>
+        <v>0.1570972724072356</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01958053601064392</v>
+        <v>0.02622114002613883</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>36</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2405284556.308323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2813443288.954077</v>
+        <v>3814912764.805095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1217013127353698</v>
+        <v>0.1264710582411851</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03085904852457155</v>
+        <v>0.02581203231242388</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1406721616.464238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3284228008.091547</v>
+        <v>2711502940.939289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1022228478848101</v>
+        <v>0.110042237869208</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02935792690147538</v>
+        <v>0.02171943848753848</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1642114010.533476</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4415664783.855511</v>
+        <v>3642707887.50352</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1495989752436123</v>
+        <v>0.1689255921605736</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01939506335593472</v>
+        <v>0.01995755194386881</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2207832495.704021</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3282246631.50263</v>
+        <v>2294061285.687887</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1391187527841691</v>
+        <v>0.1532284890551237</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03796842526546408</v>
+        <v>0.04680283743161999</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>46</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1641123442.026537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_111.xlsx
+++ b/output/fit_clients/fit_round_111.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2007281920.927429</v>
+        <v>1606004907.821677</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06951107521484579</v>
+        <v>0.08716093760849125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03405457876219783</v>
+        <v>0.03708916038836273</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1711611358.078311</v>
+        <v>2055882624.856013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1692229550591697</v>
+        <v>0.1801281548403532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03969812431067652</v>
+        <v>0.04901022973336326</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5137415717.039582</v>
+        <v>5251579041.815283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1027016386030871</v>
+        <v>0.160444461742262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03560386594045903</v>
+        <v>0.02402139155202966</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3438455826.044633</v>
+        <v>3073191014.722645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07626798667158458</v>
+        <v>0.06812641131990471</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04066114788018517</v>
+        <v>0.03315546319470241</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2064703069.453014</v>
+        <v>2288269051.65547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09885593028235633</v>
+        <v>0.1289315212721242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0372839401017234</v>
+        <v>0.05595084893757771</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1942971782.93263</v>
+        <v>3117872056.12331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06366978072781822</v>
+        <v>0.0920050955047567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0335310714213608</v>
+        <v>0.03992986903601894</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2967576932.8612</v>
+        <v>3561322643.004695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1481356275985418</v>
+        <v>0.1329669990706437</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03239525460089909</v>
+        <v>0.03174802639877993</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1783191655.913282</v>
+        <v>1409364797.779136</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1519876975976752</v>
+        <v>0.1834590514929484</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0343822094819838</v>
+        <v>0.02994636626923925</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4642835649.56028</v>
+        <v>5317270354.399438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1340021759536229</v>
+        <v>0.2024123586414654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04412623245805548</v>
+        <v>0.04451039588447135</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3153312374.109987</v>
+        <v>4057005554.925128</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1311641671017947</v>
+        <v>0.1447914714455069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03734692007431054</v>
+        <v>0.03800587455359425</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2496375366.445111</v>
+        <v>2048870295.417666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869217933725766</v>
+        <v>0.1422541408325625</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0492127261597328</v>
+        <v>0.0347511521743271</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3913147791.643964</v>
+        <v>4111714272.239326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06357778198404426</v>
+        <v>0.08195580890868552</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02205129035935783</v>
+        <v>0.03125971512053318</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3365453859.125204</v>
+        <v>2638086529.26147</v>
       </c>
       <c r="F14" t="n">
-        <v>0.130060969238551</v>
+        <v>0.147278831382318</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0296129249593924</v>
+        <v>0.03944527381795637</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1532998813.242608</v>
+        <v>1232081721.244348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08849205915806276</v>
+        <v>0.1040794517878945</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03713033931266829</v>
+        <v>0.034978279560453</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2378009322.756993</v>
+        <v>2176151144.030642</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09129273050841626</v>
+        <v>0.1060356093885312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03225453475381629</v>
+        <v>0.04526396497125309</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5123443006.452087</v>
+        <v>3639964563.247264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1411030257734032</v>
+        <v>0.1104358346255389</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03784235941125383</v>
+        <v>0.038533250277414</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3230200183.986576</v>
+        <v>3372452889.970723</v>
       </c>
       <c r="F18" t="n">
-        <v>0.135106849217542</v>
+        <v>0.1679391553336047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02875207012173548</v>
+        <v>0.0218209906201715</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>946569895.1413567</v>
+        <v>1214688930.764995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1367508628649302</v>
+        <v>0.1316718597971286</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02006108504080705</v>
+        <v>0.02752234614501905</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2067925684.004001</v>
+        <v>2621946114.862314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442160390176213</v>
+        <v>0.1211811274706058</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02743551968705196</v>
+        <v>0.02555901502582741</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2247868962.649716</v>
+        <v>2712618676.46715</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06755479028251482</v>
+        <v>0.09213520880353086</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0327834462211954</v>
+        <v>0.04058858198961728</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3172866270.909534</v>
+        <v>2956426544.401318</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09584819439119326</v>
+        <v>0.09909341935342017</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03884218549400235</v>
+        <v>0.04252731601628197</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1387340694.875512</v>
+        <v>960917887.8486515</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1307639252894555</v>
+        <v>0.1432416632544497</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05479621407191685</v>
+        <v>0.04438869507265362</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4119940857.037221</v>
+        <v>2551073392.998803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1321542624883508</v>
+        <v>0.1321593340559316</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02360180543036702</v>
+        <v>0.02753915496470069</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1021049890.501299</v>
+        <v>1197086366.415185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.10042527699846</v>
+        <v>0.1185460345464211</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0271907625277413</v>
+        <v>0.0277630524970159</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>921358790.6763874</v>
+        <v>1043195286.648828</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1015643073533127</v>
+        <v>0.09254087011312657</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03555527485046964</v>
+        <v>0.02804601152448193</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3421314112.923175</v>
+        <v>2985590311.220329</v>
       </c>
       <c r="F27" t="n">
-        <v>0.116412461731536</v>
+        <v>0.1056763748374956</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02233568588705462</v>
+        <v>0.02134648964713267</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3023656249.348106</v>
+        <v>2611764430.855553</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017726715044523</v>
+        <v>0.09491469157272013</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04502395575173233</v>
+        <v>0.03075990090442897</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5509206299.486136</v>
+        <v>4598489883.00636</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1028175554451172</v>
+        <v>0.1432034662472088</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04478718994981523</v>
+        <v>0.03937137369592256</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1694369933.610546</v>
+        <v>1751775724.067277</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1200033455557771</v>
+        <v>0.1226458674477579</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02465731405257121</v>
+        <v>0.03553878783461503</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1014888626.594398</v>
+        <v>1131418936.380557</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06947957043375171</v>
+        <v>0.09182217146574662</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03327702908105373</v>
+        <v>0.04725821407992415</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1186931037.062958</v>
+        <v>1193003799.771443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1086214778868292</v>
+        <v>0.1013097260702123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03738759196298833</v>
+        <v>0.0314893566939452</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2706744984.89235</v>
+        <v>3094413697.837078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1928759465947283</v>
+        <v>0.1297156641947352</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03841457023957408</v>
+        <v>0.05349292780163391</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225861246.10149</v>
+        <v>1070109170.71405</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09937793701262095</v>
+        <v>0.1127759336774534</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02650976938215577</v>
+        <v>0.02778345525225575</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1177406446.142879</v>
+        <v>1095202651.418651</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08325607450701804</v>
+        <v>0.09654272112464458</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03645272459288231</v>
+        <v>0.03473149372804384</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2262815275.086855</v>
+        <v>2423096304.108409</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1675065985831292</v>
+        <v>0.1114242654954874</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0277973068528527</v>
+        <v>0.02264601026946762</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2315496093.747707</v>
+        <v>1860803235.621426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07456705812504213</v>
+        <v>0.08233767202778502</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03176618093554073</v>
+        <v>0.02913919046753899</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2042639930.213246</v>
+        <v>2135455213.484734</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1132735182574343</v>
+        <v>0.118647904920703</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02875240770351698</v>
+        <v>0.03464004772459039</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2030764283.018043</v>
+        <v>2109912765.198337</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1527418612059195</v>
+        <v>0.1441288792853986</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02573719693586544</v>
+        <v>0.02305861302910631</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1805073620.777115</v>
+        <v>1406886241.082521</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1006291520044035</v>
+        <v>0.1311787044496152</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04632819637651406</v>
+        <v>0.03669567931971734</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2371768313.286239</v>
+        <v>2552948481.152094</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1393224474641321</v>
+        <v>0.112634016268606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02856091788263006</v>
+        <v>0.04214651136973702</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3839317341.255424</v>
+        <v>3071525275.831993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07939656125960072</v>
+        <v>0.1011550074821418</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03078543396353998</v>
+        <v>0.02989892904009064</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2685411393.245169</v>
+        <v>2183012668.068825</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1241176277667221</v>
+        <v>0.1578967704352614</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02343133126686864</v>
+        <v>0.02160803707974309</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1827587737.138525</v>
+        <v>1659255709.350775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0727586899282343</v>
+        <v>0.09666881079149311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02579931144156095</v>
+        <v>0.03247314266778531</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2485351876.084982</v>
+        <v>2474497568.025846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1738692796404</v>
+        <v>0.1193750181782406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04844525413976192</v>
+        <v>0.04597753043873404</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4964001369.870808</v>
+        <v>4125029523.446029</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1503799923214563</v>
+        <v>0.108942620556289</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04739676678482134</v>
+        <v>0.03863419430996777</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3145739843.762133</v>
+        <v>4997904789.166161</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1913528658538218</v>
+        <v>0.1352018409108971</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0393313736500252</v>
+        <v>0.03982936820683132</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4598624542.437666</v>
+        <v>3381997452.679195</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07123565464605318</v>
+        <v>0.07268949381486194</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03010521221802442</v>
+        <v>0.02961301248413168</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1288457198.574217</v>
+        <v>1763489943.314731</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1236445538364638</v>
+        <v>0.1383885982178786</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03324317090331314</v>
+        <v>0.03225917365856255</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3710067588.358774</v>
+        <v>3721072289.808756</v>
       </c>
       <c r="F50" t="n">
-        <v>0.112557462356066</v>
+        <v>0.1627689585089147</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03474584005211791</v>
+        <v>0.05268576018615698</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1119944670.403205</v>
+        <v>1142392456.802604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1914557021846436</v>
+        <v>0.1553128542065477</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03714132951126589</v>
+        <v>0.03830815864149816</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4322191428.659239</v>
+        <v>5200993438.367703</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0926699493457597</v>
+        <v>0.1073739817522701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04441849742321109</v>
+        <v>0.04088929149427501</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3584266717.462194</v>
+        <v>2857549108.110946</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1860239872694568</v>
+        <v>0.1766930173872882</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03089345517421254</v>
+        <v>0.0234695301424404</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4805694602.395456</v>
+        <v>3646342421.716042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1267917056649447</v>
+        <v>0.1021684188226005</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04448520157058981</v>
+        <v>0.03598048766685953</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4082840803.788275</v>
+        <v>3129104843.852562</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2212374383050126</v>
+        <v>0.1496085659583654</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02309119330495863</v>
+        <v>0.03196524194996084</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1679821939.863712</v>
+        <v>1482906446.180372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1218750360822443</v>
+        <v>0.1222389310781168</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04371623827988613</v>
+        <v>0.04212549936465097</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4124875775.027802</v>
+        <v>3039864403.618876</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1727747943844987</v>
+        <v>0.1467204324783094</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02175067034195491</v>
+        <v>0.02140283362091691</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1487197255.216763</v>
+        <v>1564385765.891849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1577691891996403</v>
+        <v>0.1894944940297224</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03656519501505005</v>
+        <v>0.02526472660620079</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4996641379.478683</v>
+        <v>5293017073.869769</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1269067219813976</v>
+        <v>0.1309360280646391</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04673718817901899</v>
+        <v>0.04218858464369239</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2464782782.501537</v>
+        <v>2904096503.544763</v>
       </c>
       <c r="F60" t="n">
-        <v>0.187216824428996</v>
+        <v>0.1972451044854569</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03027510301398001</v>
+        <v>0.02861985452738261</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3405098647.965497</v>
+        <v>2569654064.990131</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1331626687839949</v>
+        <v>0.1260523920862332</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02141353062259507</v>
+        <v>0.02983850421532597</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902238845.483063</v>
+        <v>2058483176.316836</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1848575365688132</v>
+        <v>0.1389939873470145</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04013691593468818</v>
+        <v>0.03902055199323551</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5107732400.620942</v>
+        <v>3409935658.979104</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09841077070790268</v>
+        <v>0.09566311807573318</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03640490129510709</v>
+        <v>0.04379019702095844</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5096505281.446941</v>
+        <v>3540451103.055528</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1831825945493364</v>
+        <v>0.1884976397292284</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02931548091957745</v>
+        <v>0.02777424259423641</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4588282896.626621</v>
+        <v>3649357566.28031</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1265528087102815</v>
+        <v>0.1370543446155583</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02208541386024584</v>
+        <v>0.02926885260308977</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3822784661.638011</v>
+        <v>3614698147.875505</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1150674847680276</v>
+        <v>0.1216113499308735</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03570858759981835</v>
+        <v>0.03273976928587094</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2548862274.723843</v>
+        <v>2873980356.064155</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07966238850716804</v>
+        <v>0.07460849540308249</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03736056957115302</v>
+        <v>0.03966253349777003</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5638543451.634466</v>
+        <v>5484384830.401879</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1094718446050491</v>
+        <v>0.1466167793787796</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03668662568154396</v>
+        <v>0.03173377521492832</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1997081807.561242</v>
+        <v>1977294066.51283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1139786483752952</v>
+        <v>0.1688904009287255</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03938759971237742</v>
+        <v>0.04582707022237149</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3485991060.436999</v>
+        <v>3604960305.097412</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07448264779903277</v>
+        <v>0.06627788630590228</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03012893607016607</v>
+        <v>0.03673497602220785</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3860501940.01576</v>
+        <v>5285241621.274117</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1241406415086134</v>
+        <v>0.1542568540143641</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02403382754331787</v>
+        <v>0.03144498956756395</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2050078007.057759</v>
+        <v>1752992444.829715</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08045836435146936</v>
+        <v>0.08736448880049021</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03770812641240272</v>
+        <v>0.04055625387206652</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3381087511.120653</v>
+        <v>3062799909.536554</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09075580387118559</v>
+        <v>0.08528013539969199</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05047546021553895</v>
+        <v>0.03784333247536296</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3037957490.948843</v>
+        <v>2754025713.048694</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1432225870484</v>
+        <v>0.1731426856750931</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02555198334902791</v>
+        <v>0.03232089880277437</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1940461419.603024</v>
+        <v>1544646592.769502</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1073839923176635</v>
+        <v>0.1089045770091551</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03671610232762035</v>
+        <v>0.02453086790784846</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4597341995.605206</v>
+        <v>4506452015.927738</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1123414108382313</v>
+        <v>0.08150122782927859</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0235281463104534</v>
+        <v>0.03223643689264517</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2227167041.685999</v>
+        <v>2309856175.082285</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1576522753334046</v>
+        <v>0.1377929484601584</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01938744970041452</v>
+        <v>0.03075993047023841</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3721775380.366491</v>
+        <v>4252859165.304214</v>
       </c>
       <c r="F78" t="n">
-        <v>0.108257872148783</v>
+        <v>0.1322236723501898</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03952332254294372</v>
+        <v>0.04450184906448484</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1590340748.923569</v>
+        <v>1790396031.381644</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1509052566299935</v>
+        <v>0.1642964645200556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04076805678397705</v>
+        <v>0.03555450057536582</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3647700153.86956</v>
+        <v>4824285597.595807</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08880060878584062</v>
+        <v>0.0926341620068926</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03780204284150134</v>
+        <v>0.0296568034471274</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3483900558.883187</v>
+        <v>3182299961.46496</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1249802280387187</v>
+        <v>0.1239370585233725</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0240179364709205</v>
+        <v>0.03235778969073184</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4374221590.96583</v>
+        <v>5697218695.764931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2157881557819831</v>
+        <v>0.1639405993317373</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02698339086482964</v>
+        <v>0.02603319426451818</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1563033622.531871</v>
+        <v>1511242563.167888</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1490621403234621</v>
+        <v>0.1208435365812368</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02970625182173744</v>
+        <v>0.03678805755758665</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1786902278.21221</v>
+        <v>2251190908.232333</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1102628464545909</v>
+        <v>0.09514705286694708</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04009871570636626</v>
+        <v>0.03855843962103077</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3418904544.885338</v>
+        <v>2291744646.825722</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1500002076971768</v>
+        <v>0.1290899302369018</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04759068663809795</v>
+        <v>0.05105751016191597</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2489257983.518073</v>
+        <v>2292860500.117762</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1377235220821076</v>
+        <v>0.1208434113443394</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01770305360855294</v>
+        <v>0.01930258161008755</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1474188744.51684</v>
+        <v>1308812948.304608</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1283434086218118</v>
+        <v>0.1191417944193491</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04406902878520248</v>
+        <v>0.02805022817519006</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3069615179.853782</v>
+        <v>3018047291.220829</v>
       </c>
       <c r="F88" t="n">
-        <v>0.142160800243042</v>
+        <v>0.1603213843934989</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02882428218714147</v>
+        <v>0.03382659215296235</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2232845683.250449</v>
+        <v>2151434195.655689</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1418877695093612</v>
+        <v>0.104069009609468</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02820341852772034</v>
+        <v>0.03999801988519756</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1766179594.568765</v>
+        <v>1383059991.946742</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1135331632837349</v>
+        <v>0.1356136662196398</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03638192698913315</v>
+        <v>0.05188322895210824</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1340169660.094079</v>
+        <v>1722637967.192186</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1796656146587609</v>
+        <v>0.1758869957274657</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05573959067430474</v>
+        <v>0.05313551517952606</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2232329104.173084</v>
+        <v>2001989240.721038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1066677904810508</v>
+        <v>0.08242287281623022</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03151812769022796</v>
+        <v>0.03136631412844959</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4112142326.652815</v>
+        <v>4099875632.677691</v>
       </c>
       <c r="F93" t="n">
-        <v>0.100758709754981</v>
+        <v>0.1308383086027833</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04824913484080047</v>
+        <v>0.04682894225349114</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1768115493.081422</v>
+        <v>1608163041.661521</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1326068098248777</v>
+        <v>0.1021781379885544</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0335406054622284</v>
+        <v>0.04025530882673752</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3182056817.068347</v>
+        <v>2043234598.319049</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1319060420556429</v>
+        <v>0.1021196772837354</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03646703822041108</v>
+        <v>0.04174254500108631</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1492279901.309659</v>
+        <v>2302225715.270727</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1081389303033175</v>
+        <v>0.1245639874287472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02869448975449402</v>
+        <v>0.03690758025609821</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5225134903.868331</v>
+        <v>3321300197.214156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1570972724072356</v>
+        <v>0.1347541792551465</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02622114002613883</v>
+        <v>0.02250551993507194</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3814912764.805095</v>
+        <v>3454733379.055594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1264710582411851</v>
+        <v>0.08676738276246704</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02581203231242388</v>
+        <v>0.02328917685237404</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2711502940.939289</v>
+        <v>2276241683.326529</v>
       </c>
       <c r="F99" t="n">
-        <v>0.110042237869208</v>
+        <v>0.1007532587285735</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02171943848753848</v>
+        <v>0.02329535198034809</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3642707887.50352</v>
+        <v>4431805050.558426</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1689255921605736</v>
+        <v>0.1524669693675575</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01995755194386881</v>
+        <v>0.01969655398284476</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2294061285.687887</v>
+        <v>3216021518.919661</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1532284890551237</v>
+        <v>0.2217298740172721</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04680283743161999</v>
+        <v>0.04680582593254187</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_111.xlsx
+++ b/output/fit_clients/fit_round_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1606004907.821677</v>
+        <v>2209322482.141563</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08716093760849125</v>
+        <v>0.1005346975544388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03708916038836273</v>
+        <v>0.03945310867096462</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2055882624.856013</v>
+        <v>2256988275.889623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1801281548403532</v>
+        <v>0.1819688018944223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04901022973336326</v>
+        <v>0.03201958412349221</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5251579041.815283</v>
+        <v>3955126628.566054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160444461742262</v>
+        <v>0.1312342153501432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02402139155202966</v>
+        <v>0.02979311428391845</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68</v>
+      </c>
+      <c r="J4" t="n">
+        <v>110</v>
+      </c>
+      <c r="K4" t="n">
+        <v>155.0030361612586</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3073191014.722645</v>
+        <v>3139660577.277861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06812641131990471</v>
+        <v>0.09963755351825755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03315546319470241</v>
+        <v>0.0412931943131785</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2288269051.65547</v>
+        <v>2295877195.693552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1289315212721242</v>
+        <v>0.1401765666842835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05595084893757771</v>
+        <v>0.0555849398535842</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3117872056.12331</v>
+        <v>1965741084.192159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0920050955047567</v>
+        <v>0.08723471209865728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03992986903601894</v>
+        <v>0.03099571788770135</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3561322643.004695</v>
+        <v>3904085129.777185</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1329669990706437</v>
+        <v>0.1413898354257878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03174802639877993</v>
+        <v>0.03002708047414794</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K8" t="n">
+        <v>156.2824798651112</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1409364797.779136</v>
+        <v>2038500752.342985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1834590514929484</v>
+        <v>0.1573117684408542</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02994636626923925</v>
+        <v>0.02607950066019379</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5317270354.399438</v>
+        <v>5389948657.995015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2024123586414654</v>
+        <v>0.194470124850287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04451039588447135</v>
+        <v>0.04478433367543959</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>102</v>
+      </c>
+      <c r="J10" t="n">
+        <v>111</v>
+      </c>
+      <c r="K10" t="n">
+        <v>172.7808655208141</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4057005554.925128</v>
+        <v>4215613602.029403</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1447914714455069</v>
+        <v>0.1482249842650031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03800587455359425</v>
+        <v>0.03030910778043699</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>111</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2048870295.417666</v>
+        <v>2012938526.405383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1422541408325625</v>
+        <v>0.1337695790531666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0347511521743271</v>
+        <v>0.05060852021245402</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4111714272.239326</v>
+        <v>4204774457.608567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08195580890868552</v>
+        <v>0.09370640762941679</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03125971512053318</v>
+        <v>0.02301287814068088</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>111</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2638086529.26147</v>
+        <v>3167037908.93785</v>
       </c>
       <c r="F14" t="n">
-        <v>0.147278831382318</v>
+        <v>0.1824604593036059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03944527381795637</v>
+        <v>0.04416986601809449</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1232081721.244348</v>
+        <v>1565014240.595369</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1040794517878945</v>
+        <v>0.09020139952277384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.034978279560453</v>
+        <v>0.04706459161308579</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2176151144.030642</v>
+        <v>2328513337.709546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1060356093885312</v>
+        <v>0.09317723853389376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04526396497125309</v>
+        <v>0.04535402238158787</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3639964563.247264</v>
+        <v>4067646221.170875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1104358346255389</v>
+        <v>0.1116430227864759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.038533250277414</v>
+        <v>0.0325396282243445</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>53</v>
+      </c>
+      <c r="J17" t="n">
+        <v>111</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3372452889.970723</v>
+        <v>3625384118.945175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1679391553336047</v>
+        <v>0.1493539620676255</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0218209906201715</v>
+        <v>0.03325816561094318</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>111</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1214688930.764995</v>
+        <v>926767800.9153132</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1316718597971286</v>
+        <v>0.1643913257938968</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02752234614501905</v>
+        <v>0.01697011280724068</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2621946114.862314</v>
+        <v>1718942728.791419</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1211811274706058</v>
+        <v>0.1132449715736625</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02555901502582741</v>
+        <v>0.02895184007942328</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2712618676.46715</v>
+        <v>1710630288.175097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09213520880353086</v>
+        <v>0.09007074003650378</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04058858198961728</v>
+        <v>0.03588957500236159</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2956426544.401318</v>
+        <v>3991777069.250875</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09909341935342017</v>
+        <v>0.1138239984018586</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04252731601628197</v>
+        <v>0.04520927226496182</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>111</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>960917887.8486515</v>
+        <v>1241572984.230738</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1432416632544497</v>
+        <v>0.1769213512469373</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04438869507265362</v>
+        <v>0.03930190559275645</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2551073392.998803</v>
+        <v>3596208166.852116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1321593340559316</v>
+        <v>0.1364383804250976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02753915496470069</v>
+        <v>0.03698609441627676</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>111</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1197086366.415185</v>
+        <v>1054020733.084398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1185460345464211</v>
+        <v>0.07925217933656499</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0277630524970159</v>
+        <v>0.01933119206880332</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1043195286.648828</v>
+        <v>1187372956.722792</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09254087011312657</v>
+        <v>0.08817787525589504</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02804601152448193</v>
+        <v>0.03845712087568254</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2985590311.220329</v>
+        <v>2999636683.266148</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1056763748374956</v>
+        <v>0.1058208953702742</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02134648964713267</v>
+        <v>0.01937860401824454</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44</v>
+      </c>
+      <c r="J27" t="n">
+        <v>110</v>
+      </c>
+      <c r="K27" t="n">
+        <v>76.6214635462013</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2611764430.855553</v>
+        <v>2745379452.653965</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09491469157272013</v>
+        <v>0.1216136596168611</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03075990090442897</v>
+        <v>0.04139431793304623</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>109</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4598489883.00636</v>
+        <v>5434382037.022033</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1432034662472088</v>
+        <v>0.1238959060494813</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03937137369592256</v>
+        <v>0.04487834086122757</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>103</v>
+      </c>
+      <c r="J29" t="n">
+        <v>111</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1751775724.067277</v>
+        <v>1855242156.387788</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1226458674477579</v>
+        <v>0.125730005184833</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03553878783461503</v>
+        <v>0.03259336968327065</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1131418936.380557</v>
+        <v>1265945447.969603</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09182217146574662</v>
+        <v>0.09147909905737506</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04725821407992415</v>
+        <v>0.04424055857440667</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1193003799.771443</v>
+        <v>1354994363.961218</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013097260702123</v>
+        <v>0.08575056051924317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0314893566939452</v>
+        <v>0.03223842649532316</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3094413697.837078</v>
+        <v>3114755748.700938</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1297156641947352</v>
+        <v>0.149593215103899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05349292780163391</v>
+        <v>0.04880653104913473</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1070109170.71405</v>
+        <v>976596955.3638495</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1127759336774534</v>
+        <v>0.09464051928732858</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02778345525225575</v>
+        <v>0.01753576194521924</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1095202651.418651</v>
+        <v>1021177428.610054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09654272112464458</v>
+        <v>0.07878171762194834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03473149372804384</v>
+        <v>0.03056788662321188</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2423096304.108409</v>
+        <v>2921590049.188597</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114242654954874</v>
+        <v>0.1773624649241115</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02264601026946762</v>
+        <v>0.01944499599413281</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1860803235.621426</v>
+        <v>1770892116.371491</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08233767202778502</v>
+        <v>0.09552333391597398</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02913919046753899</v>
+        <v>0.02894365504735526</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2135455213.484734</v>
+        <v>2028012241.647597</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118647904920703</v>
+        <v>0.09686281611074711</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03464004772459039</v>
+        <v>0.04000795109103485</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2109912765.198337</v>
+        <v>1968129260.233175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1441288792853986</v>
+        <v>0.1525648332306469</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02305861302910631</v>
+        <v>0.03306078363586122</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1406886241.082521</v>
+        <v>1233497367.776328</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1311787044496152</v>
+        <v>0.1101510420337564</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03669567931971734</v>
+        <v>0.05208048284784773</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2552948481.152094</v>
+        <v>2789542914.522734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.112634016268606</v>
+        <v>0.1002584155388288</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04214651136973702</v>
+        <v>0.03241595663425131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3071525275.831993</v>
+        <v>3560410136.963616</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1011550074821418</v>
+        <v>0.09116204826860247</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02989892904009064</v>
+        <v>0.02951354229598229</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>111</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2183012668.068825</v>
+        <v>3041198935.746104</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1578967704352614</v>
+        <v>0.2016529820538835</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02160803707974309</v>
+        <v>0.01807042260264225</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1659255709.350775</v>
+        <v>2047860151.270365</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09666881079149311</v>
+        <v>0.09130532175575151</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03247314266778531</v>
+        <v>0.03430923973273761</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2474497568.025846</v>
+        <v>1823156453.682315</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1193750181782406</v>
+        <v>0.1375494124049716</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04597753043873404</v>
+        <v>0.04662786038867281</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4125029523.446029</v>
+        <v>3914663264.863834</v>
       </c>
       <c r="F46" t="n">
-        <v>0.108942620556289</v>
+        <v>0.1449715783680915</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03863419430996777</v>
+        <v>0.05360344978413682</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>64</v>
+      </c>
+      <c r="J46" t="n">
+        <v>110</v>
+      </c>
+      <c r="K46" t="n">
+        <v>157.4951202566908</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4997904789.166161</v>
+        <v>3909780019.139055</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1352018409108971</v>
+        <v>0.1949489256155925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03982936820683132</v>
+        <v>0.05785082047192878</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110</v>
+      </c>
+      <c r="K47" t="n">
+        <v>128.6386541731673</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3381997452.679195</v>
+        <v>3645841044.083557</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07268949381486194</v>
+        <v>0.08587311655205376</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02961301248413168</v>
+        <v>0.0349483344238633</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>42</v>
+      </c>
+      <c r="J48" t="n">
+        <v>110</v>
+      </c>
+      <c r="K48" t="n">
+        <v>137.777390883998</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1763489943.314731</v>
+        <v>1624013684.821134</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1383885982178786</v>
+        <v>0.1225356790130588</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03225917365856255</v>
+        <v>0.02849920029494627</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3721072289.808756</v>
+        <v>2624980405.006065</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1627689585089147</v>
+        <v>0.1143588356751503</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05268576018615698</v>
+        <v>0.04451515349561525</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>108</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1142392456.802604</v>
+        <v>1318933202.41463</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1553128542065477</v>
+        <v>0.1460480501332726</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03830815864149816</v>
+        <v>0.03289221490524771</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5200993438.367703</v>
+        <v>4926144892.202038</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1073739817522701</v>
+        <v>0.1054165648249392</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04088929149427501</v>
+        <v>0.04249731847467415</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>85</v>
+      </c>
+      <c r="J52" t="n">
+        <v>111</v>
+      </c>
+      <c r="K52" t="n">
+        <v>162.8231780370799</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2857549108.110946</v>
+        <v>2959876110.946147</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1766930173872882</v>
+        <v>0.1436916211184636</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0234695301424404</v>
+        <v>0.0335174816885964</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3646342421.716042</v>
+        <v>3425683605.902876</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1021684188226005</v>
+        <v>0.1596681191094902</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03598048766685953</v>
+        <v>0.04899970255599086</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" t="n">
+        <v>109</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3129104843.852562</v>
+        <v>3295746931.157343</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1496085659583654</v>
+        <v>0.148199887733879</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03196524194996084</v>
+        <v>0.02180571776262818</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>51</v>
+      </c>
+      <c r="J55" t="n">
+        <v>110</v>
+      </c>
+      <c r="K55" t="n">
+        <v>101.9846616690853</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1482906446.180372</v>
+        <v>1371549160.230957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222389310781168</v>
+        <v>0.1497605249571121</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04212549936465097</v>
+        <v>0.03725733810785407</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3039864403.618876</v>
+        <v>3392291553.207176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1467204324783094</v>
+        <v>0.174133408275165</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02140283362091691</v>
+        <v>0.02625448008295026</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43</v>
+      </c>
+      <c r="J57" t="n">
+        <v>110</v>
+      </c>
+      <c r="K57" t="n">
+        <v>111.3502539225256</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1564385765.891849</v>
+        <v>1228100904.591032</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1894944940297224</v>
+        <v>0.1736791452549911</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02526472660620079</v>
+        <v>0.03643091773806444</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5293017073.869769</v>
+        <v>4170787675.243151</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1309360280646391</v>
+        <v>0.1283346084220976</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04218858464369239</v>
+        <v>0.04339391761157744</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>54</v>
+      </c>
+      <c r="J59" t="n">
+        <v>110</v>
+      </c>
+      <c r="K59" t="n">
+        <v>144.6577441419458</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2904096503.544763</v>
+        <v>3573121150.735082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1972451044854569</v>
+        <v>0.1697755410141278</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02861985452738261</v>
+        <v>0.03241505257715303</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="n">
+        <v>127.5017140057151</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2590,25 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2569654064.990131</v>
+        <v>2779864653.082163</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1260523920862332</v>
+        <v>0.1340535404674545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02983850421532597</v>
+        <v>0.02720812983981858</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="n">
+        <v>82.97210597839624</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2058483176.316836</v>
+        <v>1976286951.502724</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1389939873470145</v>
+        <v>0.150206316652885</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03902055199323551</v>
+        <v>0.03561867268115579</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3409935658.979104</v>
+        <v>5214779654.82345</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09566311807573318</v>
+        <v>0.0785929620925</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04379019702095844</v>
+        <v>0.03397523811526081</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>55</v>
+      </c>
+      <c r="J63" t="n">
+        <v>110</v>
+      </c>
+      <c r="K63" t="n">
+        <v>139.4127430353789</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2699,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3540451103.055528</v>
+        <v>3774240942.616657</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1884976397292284</v>
+        <v>0.1327764382258867</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02777424259423641</v>
+        <v>0.03415805620041624</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>55</v>
+      </c>
+      <c r="J64" t="n">
+        <v>110</v>
+      </c>
+      <c r="K64" t="n">
+        <v>140.3358944372249</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2730,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3649357566.28031</v>
+        <v>4267953834.337812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1370543446155583</v>
+        <v>0.1575043152467323</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02926885260308977</v>
+        <v>0.0196985934246821</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>91</v>
+      </c>
+      <c r="J65" t="n">
+        <v>111</v>
+      </c>
+      <c r="K65" t="n">
+        <v>162.0068938643626</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3614698147.875505</v>
+        <v>5612816214.418688</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1216113499308735</v>
+        <v>0.1277701132845613</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03273976928587094</v>
+        <v>0.04160790853225261</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>54</v>
+      </c>
+      <c r="J66" t="n">
+        <v>111</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2873980356.064155</v>
+        <v>2141045055.337471</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07460849540308249</v>
+        <v>0.06542065976570177</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03966253349777003</v>
+        <v>0.04256578275988353</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5484384830.401879</v>
+        <v>6095446267.394132</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1466167793787796</v>
+        <v>0.1265995739523081</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03173377521492832</v>
+        <v>0.04132526269957248</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>55</v>
+      </c>
+      <c r="J68" t="n">
+        <v>111</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1977294066.51283</v>
+        <v>1898618261.346285</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1688904009287255</v>
+        <v>0.119511860930984</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04582707022237149</v>
+        <v>0.04382667975340161</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3604960305.097412</v>
+        <v>2699497167.210412</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06627788630590228</v>
+        <v>0.09076670217712259</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03673497602220785</v>
+        <v>0.03667901764759699</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5285241621.274117</v>
+        <v>5573177393.123502</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1542568540143641</v>
+        <v>0.1525395831803082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03144498956756395</v>
+        <v>0.03373908964484798</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>90</v>
+      </c>
+      <c r="J71" t="n">
+        <v>111</v>
+      </c>
+      <c r="K71" t="n">
+        <v>159.9560713443866</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1752992444.829715</v>
+        <v>1756243905.718789</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08736448880049021</v>
+        <v>0.08027550572017561</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04055625387206652</v>
+        <v>0.04280133482317743</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3062799909.536554</v>
+        <v>3524882035.949087</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08528013539969199</v>
+        <v>0.08517852259307272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03784333247536296</v>
+        <v>0.04816433347040509</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2754025713.048694</v>
+        <v>2609922907.341437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1731426856750931</v>
+        <v>0.1295999087431303</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03232089880277437</v>
+        <v>0.03374459453157206</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1544646592.769502</v>
+        <v>1510854095.236416</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1089045770091551</v>
+        <v>0.1149355891512348</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02453086790784846</v>
+        <v>0.03189270489786195</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4506452015.927738</v>
+        <v>4110183759.60017</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08150122782927859</v>
+        <v>0.1022932487185966</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03223643689264517</v>
+        <v>0.02186034478942201</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>51</v>
+      </c>
+      <c r="J76" t="n">
+        <v>111</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2309856175.082285</v>
+        <v>2040042734.255116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1377929484601584</v>
+        <v>0.1273068153825811</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03075993047023841</v>
+        <v>0.02392733016170957</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4252859165.304214</v>
+        <v>4123405825.916537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1322236723501898</v>
+        <v>0.09138307351102289</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04450184906448484</v>
+        <v>0.04050294905943443</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>55</v>
+      </c>
+      <c r="J78" t="n">
+        <v>111</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1790396031.381644</v>
+        <v>1439730852.822719</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1642964645200556</v>
+        <v>0.1065783196514144</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03555450057536582</v>
+        <v>0.02538406625778031</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4824285597.595807</v>
+        <v>4084739172.212444</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0926341620068926</v>
+        <v>0.0946643499217629</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0296568034471274</v>
+        <v>0.03879418216010816</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>53</v>
+      </c>
+      <c r="J80" t="n">
+        <v>111</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3182299961.46496</v>
+        <v>3822310654.949327</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1239370585233725</v>
+        <v>0.1228491404007206</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03235778969073184</v>
+        <v>0.02656444340245481</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>49</v>
+      </c>
+      <c r="J81" t="n">
+        <v>111</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5697218695.764931</v>
+        <v>5023046672.040385</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1639405993317373</v>
+        <v>0.1587972316637701</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02603319426451818</v>
+        <v>0.02444948726604458</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>75</v>
+      </c>
+      <c r="J82" t="n">
+        <v>111</v>
+      </c>
+      <c r="K82" t="n">
+        <v>165.0062240218203</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1511242563.167888</v>
+        <v>2179387561.904748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1208435365812368</v>
+        <v>0.09606241362392443</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03678805755758665</v>
+        <v>0.0373063256891001</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2251190908.232333</v>
+        <v>1893749843.961338</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09514705286694708</v>
+        <v>0.1016711361475039</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03855843962103077</v>
+        <v>0.03372248347479538</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2291744646.825722</v>
+        <v>2812910491.489857</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1290899302369018</v>
+        <v>0.1470786711673586</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05105751016191597</v>
+        <v>0.04193960443531017</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2292860500.117762</v>
+        <v>1895694503.212916</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1208434113443394</v>
+        <v>0.1283850919685512</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01930258161008755</v>
+        <v>0.02320303867766692</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1308812948.304608</v>
+        <v>1202590717.714012</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1191417944193491</v>
+        <v>0.1831552516554721</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02805022817519006</v>
+        <v>0.04445267161436164</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3018047291.220829</v>
+        <v>3150542121.393174</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603213843934989</v>
+        <v>0.1306808856853122</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03382659215296235</v>
+        <v>0.02656572444096742</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2151434195.655689</v>
+        <v>3039539237.578345</v>
       </c>
       <c r="F89" t="n">
-        <v>0.104069009609468</v>
+        <v>0.153678519056293</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03999801988519756</v>
+        <v>0.04019308149922564</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1383059991.946742</v>
+        <v>2093855554.171457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1356136662196398</v>
+        <v>0.0898655310097817</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05188322895210824</v>
+        <v>0.04487282863856402</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1722637967.192186</v>
+        <v>1588424863.350639</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1758869957274657</v>
+        <v>0.1211704905570921</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05313551517952606</v>
+        <v>0.05551451297530507</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2001989240.721038</v>
+        <v>2656743609.41825</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08242287281623022</v>
+        <v>0.1025331526022936</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03136631412844959</v>
+        <v>0.03824995130086787</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4099875632.677691</v>
+        <v>3686386107.501782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1308383086027833</v>
+        <v>0.1343758737826504</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04682894225349114</v>
+        <v>0.04296309738734534</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>51</v>
+      </c>
+      <c r="J93" t="n">
+        <v>110</v>
+      </c>
+      <c r="K93" t="n">
+        <v>129.0587399690464</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1608163041.661521</v>
+        <v>1830613134.613762</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1021781379885544</v>
+        <v>0.1601791560899324</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04025530882673752</v>
+        <v>0.03649402923082286</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2043234598.319049</v>
+        <v>2133046859.096389</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1021196772837354</v>
+        <v>0.1356323701930429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04174254500108631</v>
+        <v>0.03857321751002289</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2302225715.270727</v>
+        <v>1990794322.722349</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245639874287472</v>
+        <v>0.1107947661822524</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03690758025609821</v>
+        <v>0.03819986676604546</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3321300197.214156</v>
+        <v>3277079541.357293</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1347541792551465</v>
+        <v>0.1111118718378913</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02250551993507194</v>
+        <v>0.01959781851219627</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>53</v>
+      </c>
+      <c r="J97" t="n">
+        <v>109</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3454733379.055594</v>
+        <v>3018987834.79435</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08676738276246704</v>
+        <v>0.100294239650913</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02328917685237404</v>
+        <v>0.0290056040667336</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>110</v>
+      </c>
+      <c r="K98" t="n">
+        <v>82.78999798959708</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2276241683.326529</v>
+        <v>2244543153.869566</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1007532587285735</v>
+        <v>0.1312606537750239</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02329535198034809</v>
+        <v>0.02491484787560449</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4431805050.558426</v>
+        <v>3178714898.977154</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1524669693675575</v>
+        <v>0.1537457897778478</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01969655398284476</v>
+        <v>0.01708479366237203</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>45</v>
+      </c>
+      <c r="J100" t="n">
+        <v>109</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3216021518.919661</v>
+        <v>2237839613.469991</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2217298740172721</v>
+        <v>0.1673952040142004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04680582593254187</v>
+        <v>0.05290658792611769</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
